--- a/Bundle+Item.xlsx
+++ b/Bundle+Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28950" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -44,8 +44,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -58,68 +58,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,38 +82,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,18 +105,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,37 +211,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,145 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,11 +407,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,30 +477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -479,26 +492,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,148 +507,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>102</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>103</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>104</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>105</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>106</v>

--- a/Bundle+Item.xlsx
+++ b/Bundle+Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28950" windowHeight="8955"/>
+    <workbookView windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -44,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -58,8 +73,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,11 +124,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,66 +172,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -156,47 +195,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,8 +422,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -425,6 +442,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,15 +479,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -473,6 +490,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +517,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,145 +525,145 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,10 +1019,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1034,44 +1049,44 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1082,13 +1097,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1099,69 +1114,86 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>106</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>4</v>
       </c>
     </row>
